--- a/apps/static/uploads/pupils_template_2.xlsx
+++ b/apps/static/uploads/pupils_template_2.xlsx
@@ -1,131 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JJ\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25E4554-E753-4009-B5D3-34BADB966DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Pupils Template" sheetId="1" r:id="rId1"/>
-    <sheet name="drop_down_data" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pupils Template" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="drop_down_data" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
-  <si>
-    <t>reg_no</t>
-  </si>
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>other_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>date_of_birth</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>admission_date</t>
-  </si>
-  <si>
-    <t>study_year</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>emergency_contact</t>
-  </si>
-  <si>
-    <t>medical_info</t>
-  </si>
-  <si>
-    <t>special_needs</t>
-  </si>
-  <si>
-    <t>attendance_record</t>
-  </si>
-  <si>
-    <t>academic_performance</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>classes</t>
-  </si>
-  <si>
-    <t>study_years</t>
-  </si>
-  <si>
-    <t>mine, Primary 1</t>
-  </si>
-  <si>
-    <t>2025</t>
-  </si>
-  <si>
-    <t>12min</t>
-  </si>
-  <si>
-    <t>zosh</t>
-  </si>
-  <si>
-    <t>mine</t>
-  </si>
-  <si>
-    <t>gaka</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>Primary 1</t>
-  </si>
-  <si>
-    <t>waka</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -143,23 +47,81 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -447,125 +409,236 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="8" max="8" width="30" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>reg_no</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>first_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>other_name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>last_name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>nin_number</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>emis_number</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>date_of_birth</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>class</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>admission_date</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>study_year</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>home_district</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>emergency_contact</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>medical_info</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>special_needs</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>attendance_record</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>academic_performance</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>residential_status</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="1">
-        <v>33219</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="1">
-        <v>46003</v>
-      </c>
-      <c r="I2">
-        <v>2025</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2">
-        <v>759623689</v>
-      </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>REG123</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Doe</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CM12345678</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>EMIS001</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2008-05-15</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Primary 5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2020-02-01</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Kampala</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>123 Main St</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0700000000</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Above average</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>No notes</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="G2:G100" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"mine,Primary 1"</formula1>
+  <dataValidations count="4">
+    <dataValidation sqref="I3:I100" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=drop_down_data!$B$1:$Z$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I2:I100" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>"2025"</formula1>
+    <dataValidation sqref="K3:K100" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=drop_down_data!$B$2:$Z$2</formula1>
+    </dataValidation>
+    <dataValidation sqref="T3:T100" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=drop_down_data!$B$3:$Z$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="H3:H100" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=drop_down_data!$B$4:$Z$4</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -573,27 +646,95 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>classes</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Primary 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Primary 4</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Primary 5</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Primary 6</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Primary 7</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>study_years</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>residential_statuses</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Boarding</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>genders</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
       </c>
     </row>
   </sheetData>
